--- a/results/pvalue_SIDER_all_enzyme_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_all_enzyme_AUPRperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.252</t>
+          <t>17.928</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13.414</t>
+          <t>19.477</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.641</t>
+          <t>20.696</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>16.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17.529</t>
+          <t>16.981</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17.306</t>
+          <t>16.759</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.525</t>
+          <t>16.969</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17.262</t>
+          <t>16.728</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.233</t>
+          <t>13.066</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
